--- a/data/trans_dic/P14B24_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14B24_2016_2023-Edad-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.01017845219176516</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.02789424801877079</v>
+        <v>0.02789424801877078</v>
       </c>
     </row>
     <row r="5">
@@ -636,19 +636,19 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.00616289611545525</v>
+        <v>0.006577649323941415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008941413600414748</v>
+        <v>0.009888248275336801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01431249574051207</v>
+        <v>0.0149863235199498</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004320032853657037</v>
+        <v>0.004470752724449349</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01421097053882642</v>
+        <v>0.01394050037705504</v>
       </c>
     </row>
     <row r="6">
@@ -660,19 +660,19 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.05536850380673855</v>
+        <v>0.05465673235463196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04278130372794992</v>
+        <v>0.04311003065424988</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07014147375408845</v>
+        <v>0.07200606956032696</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02016334316020698</v>
+        <v>0.0207623068168365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04895360939831495</v>
+        <v>0.04887027600348895</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>0.01076466067312467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03907156591195302</v>
+        <v>0.03907156591195301</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.006923898754416385</v>
@@ -716,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003463801038968856</v>
+        <v>0.003452982415579366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004856271124196903</v>
+        <v>0.004816359018842645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02294995709805894</v>
+        <v>0.02327462118007279</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00319995247035964</v>
+        <v>0.003299413508507729</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01649714715819765</v>
+        <v>0.01654557174596925</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009825185001706946</v>
+        <v>0.01110925232373058</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03090565930145738</v>
+        <v>0.0290670496646685</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02243483327744676</v>
+        <v>0.02307174350663631</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06097539362901188</v>
+        <v>0.06220696588928213</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01299286207361164</v>
+        <v>0.01325273199373537</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0390002783106249</v>
+        <v>0.03979282005858528</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00292875312476332</v>
+        <v>0.002965263176486378</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01769635723285275</v>
+        <v>0.0177747175126801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.020135343066207</v>
+        <v>0.01925039460269698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02538767913811974</v>
+        <v>0.02548240084311207</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01348380017214859</v>
+        <v>0.01322998104133554</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02497846508216495</v>
+        <v>0.0250018214794649</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0173207251308178</v>
+        <v>0.01995253635546759</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05074128383442262</v>
+        <v>0.05082233057323775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04705860003727761</v>
+        <v>0.04636095929081098</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05162123053149806</v>
+        <v>0.05185735902867292</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02798402625286616</v>
+        <v>0.02830463700449425</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04538654127480226</v>
+        <v>0.04553132009404313</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01286848994335146</v>
+        <v>0.0127217121833658</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02140554729737162</v>
+        <v>0.02050230956576683</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03358760089522219</v>
+        <v>0.0332615974597304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05666716053657271</v>
+        <v>0.05658084760694186</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02656536238765643</v>
+        <v>0.02637456919770695</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0430048536734715</v>
+        <v>0.04226039330300718</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03706142636894261</v>
+        <v>0.03689665109876226</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05026559364050886</v>
+        <v>0.0507195914562856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0694744990616975</v>
+        <v>0.06712610388003794</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08549165037301545</v>
+        <v>0.08712164229811568</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0481593653704677</v>
+        <v>0.04885398874033261</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06342180103202778</v>
+        <v>0.063286808035435</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008715111136635721</v>
+        <v>0.007488904348777697</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02506701478288706</v>
+        <v>0.02537062405544934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03673723866733759</v>
+        <v>0.0359323625988579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07173418775538454</v>
+        <v>0.07221687593531743</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0258331648874142</v>
+        <v>0.02528293571569263</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05297205904161287</v>
+        <v>0.05330711102642628</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0344248212466253</v>
+        <v>0.03365053994922589</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05399056603558099</v>
+        <v>0.05589574203304464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08208347165276152</v>
+        <v>0.07839711656826616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1088471876943441</v>
+        <v>0.1098931451852978</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05112019703907474</v>
+        <v>0.05120372241799014</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07824503702859141</v>
+        <v>0.07645716422639591</v>
       </c>
     </row>
     <row r="19">
@@ -1024,13 +1024,13 @@
         <v>0.06393661511821523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07620624555515741</v>
+        <v>0.0762062455551574</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.03797346140614117</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.04806507210904363</v>
+        <v>0.04806507210904364</v>
       </c>
     </row>
     <row r="20">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002665998603716304</v>
+        <v>0.002671118474248094</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.008885992105307345</v>
+        <v>0.009232018488576833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04147131793506281</v>
+        <v>0.04216981105195333</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05994152228919542</v>
+        <v>0.0589305484193578</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02537313278722577</v>
+        <v>0.02439174656471312</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03784038311631252</v>
+        <v>0.03779492228104189</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02497067640219021</v>
+        <v>0.02369116228935953</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03131711627808471</v>
+        <v>0.03028839351235671</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09366760376106839</v>
+        <v>0.0944794500056033</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09939143260494318</v>
+        <v>0.09636978057563032</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05569541381907559</v>
+        <v>0.05346366374542164</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06046861177013163</v>
+        <v>0.06120015442125171</v>
       </c>
     </row>
     <row r="22">
@@ -1106,7 +1106,7 @@
         <v>0.07146589189017072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07543799365009284</v>
+        <v>0.07543799365009285</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04889687838994926</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003565790102766199</v>
+        <v>0.003473191376125438</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01932368649007449</v>
+        <v>0.01758079901827099</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04837532214786164</v>
+        <v>0.04599951036482193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05679209368999098</v>
+        <v>0.05719748483999185</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03301382639207372</v>
+        <v>0.03138598040083188</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04687691905904115</v>
+        <v>0.04612247193576553</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03471737672777608</v>
+        <v>0.03174111751569415</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05778975551893516</v>
+        <v>0.05309688396441805</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1027258831484383</v>
+        <v>0.103911876116176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09559189463733486</v>
+        <v>0.09526301681714673</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06893753896971784</v>
+        <v>0.06869146233810301</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07286535460990035</v>
+        <v>0.07348114286296517</v>
       </c>
     </row>
     <row r="25">
@@ -1182,13 +1182,13 @@
         <v>0.01093851061833929</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.02750463105231373</v>
+        <v>0.02750463105231374</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.0413895551865695</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.06159888300802914</v>
+        <v>0.06159888300802915</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.02649560900372193</v>
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007952965379697339</v>
+        <v>0.007714488658332254</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02173864881661075</v>
+        <v>0.02248195955556345</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03449938085700111</v>
+        <v>0.03528950579813325</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05443581681347748</v>
+        <v>0.05507327230463876</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02284612833615389</v>
+        <v>0.02237838292935024</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04110240475625365</v>
+        <v>0.0404003055875718</v>
       </c>
     </row>
     <row r="27">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01496627704010875</v>
+        <v>0.01473740200981383</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03394857835998617</v>
+        <v>0.03406583205990691</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04912126268559613</v>
+        <v>0.04846791593200658</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06853150666453788</v>
+        <v>0.06837921980193296</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03056191710510126</v>
+        <v>0.03057112891578916</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04994751432828702</v>
+        <v>0.04937048627134535</v>
       </c>
     </row>
     <row r="28">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>2513</v>
+        <v>2682</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3539</v>
+        <v>3913</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5188</v>
+        <v>5433</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3522</v>
+        <v>3645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10947</v>
+        <v>10738</v>
       </c>
     </row>
     <row r="7">
@@ -1461,19 +1461,19 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>22579</v>
+        <v>22289</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16931</v>
+        <v>17061</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25427</v>
+        <v>26103</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16438</v>
+        <v>16926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>37709</v>
+        <v>37645</v>
       </c>
     </row>
     <row r="8">
@@ -1543,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2737</v>
+        <v>2714</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11500</v>
+        <v>11663</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3693</v>
+        <v>3808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16134</v>
+        <v>16181</v>
       </c>
     </row>
     <row r="11">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5802</v>
+        <v>6560</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14739</v>
+        <v>13862</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12643</v>
+        <v>13002</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30554</v>
+        <v>31171</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14994</v>
+        <v>15294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38141</v>
+        <v>38916</v>
       </c>
     </row>
     <row r="12">
@@ -1648,22 +1648,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1960</v>
+        <v>1984</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10966</v>
+        <v>11014</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13317</v>
+        <v>12732</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15759</v>
+        <v>15817</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17940</v>
+        <v>17602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30983</v>
+        <v>31012</v>
       </c>
     </row>
     <row r="15">
@@ -1674,22 +1674,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11589</v>
+        <v>13350</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31442</v>
+        <v>31492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31124</v>
+        <v>30662</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32042</v>
+        <v>32189</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>37232</v>
+        <v>37659</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56296</v>
+        <v>56476</v>
       </c>
     </row>
     <row r="16">
@@ -1756,22 +1756,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8314</v>
+        <v>8219</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14973</v>
+        <v>14341</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21801</v>
+        <v>21589</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41696</v>
+        <v>41632</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34405</v>
+        <v>34158</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>61725</v>
+        <v>60656</v>
       </c>
     </row>
     <row r="19">
@@ -1782,22 +1782,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23943</v>
+        <v>23837</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35160</v>
+        <v>35478</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45094</v>
+        <v>43570</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>62905</v>
+        <v>64105</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>62372</v>
+        <v>63272</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>91029</v>
+        <v>90835</v>
       </c>
     </row>
     <row r="20">
@@ -1864,22 +1864,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4165</v>
+        <v>3579</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15227</v>
+        <v>15411</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18253</v>
+        <v>17853</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>43523</v>
+        <v>43816</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25181</v>
+        <v>24645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>64316</v>
+        <v>64723</v>
       </c>
     </row>
     <row r="23">
@@ -1890,22 +1890,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16452</v>
+        <v>16082</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32796</v>
+        <v>33953</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40783</v>
+        <v>38952</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>66040</v>
+        <v>66675</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>49830</v>
+        <v>49912</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>95002</v>
+        <v>92831</v>
       </c>
     </row>
     <row r="24">
@@ -1972,22 +1972,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3610</v>
+        <v>3750</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15666</v>
+        <v>15930</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26324</v>
+        <v>25880</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>18045</v>
+        <v>17347</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>31989</v>
+        <v>31951</v>
       </c>
     </row>
     <row r="27">
@@ -1998,22 +1998,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8326</v>
+        <v>7899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12721</v>
+        <v>12303</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>35384</v>
+        <v>35691</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43649</v>
+        <v>42322</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>39610</v>
+        <v>38023</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>51119</v>
+        <v>51737</v>
       </c>
     </row>
     <row r="28">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5994</v>
+        <v>5454</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>19358</v>
+        <v>18408</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26347</v>
+        <v>26535</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21696</v>
+        <v>20626</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>36288</v>
+        <v>35704</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>8922</v>
+        <v>8157</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17926</v>
+        <v>16471</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>41108</v>
+        <v>41582</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>44347</v>
+        <v>44195</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>45303</v>
+        <v>45142</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>56407</v>
+        <v>56883</v>
       </c>
     </row>
     <row r="32">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>26988</v>
+        <v>26179</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>76687</v>
+        <v>79309</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>122285</v>
+        <v>125085</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>203042</v>
+        <v>205419</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>158506</v>
+        <v>155261</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>298305</v>
+        <v>293209</v>
       </c>
     </row>
     <row r="35">
@@ -2214,22 +2214,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>50787</v>
+        <v>50011</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>119760</v>
+        <v>120173</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>174112</v>
+        <v>171797</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>255618</v>
+        <v>255050</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>212038</v>
+        <v>212102</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>362499</v>
+        <v>358311</v>
       </c>
     </row>
     <row r="36">
